--- a/HireDate.xlsx
+++ b/HireDate.xlsx
@@ -455,7 +455,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>day_of_week</t>
+          <t>day_of_week_contacted</t>
         </is>
       </c>
     </row>
